--- a/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
+++ b/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oyespace6-5-2020\18-05-2020\OyeSocietyWeb\src\assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anusha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC009F7-3C63-4C0E-96B7-9BFABAEAA56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D101753-3478-4A1A-B9C3-ABF5CC65EEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Sno</t>
   </si>
@@ -28,15 +28,9 @@
     <t>blockname</t>
   </si>
   <si>
-    <t>blocktype</t>
-  </si>
-  <si>
     <t>units</t>
   </si>
   <si>
-    <t>managername</t>
-  </si>
-  <si>
     <t>managermobileno</t>
   </si>
   <si>
@@ -44,9 +38,6 @@
   </si>
   <si>
     <t>JSWB100</t>
-  </si>
-  <si>
-    <t>Residential</t>
   </si>
   <si>
     <t>SAM</t>
@@ -66,9 +57,6 @@
     <t>JSWB101</t>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
     <t>JPHN</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>JSWB102</t>
   </si>
   <si>
-    <t>Residential and Commercial</t>
-  </si>
-  <si>
     <t>SATYA</t>
   </si>
   <si>
@@ -108,6 +93,9 @@
   </si>
   <si>
     <t>DADY</t>
+  </si>
+  <si>
+    <t>fecilitymanagername</t>
   </si>
 </sst>
 </file>
@@ -1478,25 +1466,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IU10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="15.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="1" customWidth="1"/>
+    <col min="7" max="255" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1507,196 +1494,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="14.7" customHeight="1">
+    <row r="3" spans="1:6" ht="14.7" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
         <v>8197399604</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.15" customHeight="1">
+    <row r="4" spans="1:6" ht="15.15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
         <v>8197399604</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.15" customHeight="1">
+    <row r="5" spans="1:6" ht="15.15" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
         <v>8197399604</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.15" customHeight="1">
+    <row r="6" spans="1:6" ht="15.15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
         <v>8197399604</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.15" customHeight="1">
+    <row r="7" spans="1:6" ht="15.15" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
         <v>8197399604</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.7" customHeight="1">
+    <row r="8" spans="1:6" ht="14.7" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="14.7" customHeight="1">
+    <row r="9" spans="1:6" ht="14.7" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="14.7" customHeight="1">
+    <row r="10" spans="1:6" ht="14.7" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8" xr:uid="{14D60CE0-C804-42C5-9470-32C762C64AA8}">
-      <formula1>"Residential,Commercial,Residential and Commercial"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>

--- a/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
+++ b/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anusha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oyespace6-5-2020\18-05-2020\OyeSocietyWeb\src\assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D101753-3478-4A1A-B9C3-ABF5CC65EEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423540A2-503D-4584-A6F8-6740E14E4D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,6 @@
     <t>units</t>
   </si>
   <si>
-    <t>managermobileno</t>
-  </si>
-  <si>
-    <t>manageremailid</t>
-  </si>
-  <si>
     <t>JSWB100</t>
   </si>
   <si>
@@ -95,7 +89,13 @@
     <t>DADY</t>
   </si>
   <si>
-    <t>fecilitymanagername</t>
+    <t>facility manager</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>email id</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1469,7 @@
   <dimension ref="A1:IU10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="15.15" customHeight="1"/>
@@ -1494,13 +1494,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1508,19 +1508,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>8197399604</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.7" customHeight="1">
@@ -1528,19 +1528,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4">
         <v>8197399604</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.15" customHeight="1">
@@ -1548,19 +1548,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
         <v>8197399604</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.15" customHeight="1">
@@ -1568,19 +1568,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>8197399604</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.15" customHeight="1">
@@ -1588,19 +1588,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>8197399604</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.15" customHeight="1">
@@ -1608,19 +1608,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4">
         <v>8197399604</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.7" customHeight="1">

--- a/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
+++ b/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oyespace6-5-2020\18-05-2020\OyeSocietyWeb\src\assets\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423540A2-503D-4584-A6F8-6740E14E4D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Sno</t>
   </si>
@@ -29,6 +20,45 @@
   </si>
   <si>
     <t>units</t>
+  </si>
+  <si>
+    <t>facility manager</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>Flat Rate value</t>
+  </si>
+  <si>
+    <t>Maintenance value</t>
+  </si>
+  <si>
+    <t>Maintenance Type</t>
+  </si>
+  <si>
+    <t>Unit Of Measurement</t>
+  </si>
+  <si>
+    <t>Invoice Creation Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Generation Date</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Late Payment Charge Type</t>
+  </si>
+  <si>
+    <t>Late Payment Charge</t>
+  </si>
+  <si>
+    <t>Starts From</t>
   </si>
   <si>
     <t>JSWB100</t>
@@ -39,7 +69,7 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -48,6 +78,33 @@
     </r>
   </si>
   <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>FlatRate</t>
+  </si>
+  <si>
+    <t>sqft</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>8/9/2020</t>
+  </si>
+  <si>
+    <t>12/9/2020</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>15/9/2020</t>
+  </si>
+  <si>
     <t>JSWB101</t>
   </si>
   <si>
@@ -56,7 +113,7 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Helvetica Neue"/>
@@ -65,51 +122,112 @@
     </r>
   </si>
   <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
     <t>JSWB102</t>
   </si>
   <si>
     <t>SATYA</t>
   </si>
   <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>Half Yearly</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
     <t>JSWB103</t>
   </si>
   <si>
     <t>SILVER</t>
   </si>
   <si>
+    <t>5003</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
     <t>JSWB104</t>
   </si>
   <si>
     <t>ANU</t>
   </si>
   <si>
+    <t>5004</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
     <t>JSWB105</t>
   </si>
   <si>
     <t>DADY</t>
   </si>
   <si>
-    <t>facility manager</t>
-  </si>
-  <si>
-    <t>mobile number</t>
-  </si>
-  <si>
-    <t>email id</t>
+    <t>5005</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>605</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Helvetica Neue"/>
@@ -129,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -202,6 +320,19 @@
       <left style="thin">
         <color indexed="11"/>
       </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -216,6 +347,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
@@ -254,53 +396,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -311,85 +478,26 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -591,7 +699,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -610,7 +718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,7 +748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +956,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,15 +969,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -886,7 +988,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -905,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -957,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -983,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1009,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,15 +1254,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1174,7 +1270,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1193,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1449,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1475,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1405,7 +1501,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1431,7 +1527,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1444,220 +1540,451 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="15.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="1" customWidth="1"/>
-    <col min="7" max="255" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6719" style="1" customWidth="1"/>
+    <col min="6" max="16" width="25.6719" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="32.25" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="2" ht="20.1" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" t="s" s="2">
+        <v>16</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
+      <c r="D2" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="E2" s="4">
         <v>8197399604</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
+      <c r="F2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.7" customHeight="1">
+    <row r="3" ht="14.7" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="D3" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="E3" s="4">
         <v>8197399604</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
+      <c r="F3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.15" customHeight="1">
+    <row r="4" ht="15.15" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
+      <c r="B4" t="s" s="2">
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+      <c r="D4" t="s" s="2">
+        <v>37</v>
       </c>
       <c r="E4" s="4">
         <v>8197399604</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
+      <c r="F4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.15" customHeight="1">
+    <row r="5" ht="15.15" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+      <c r="B5" t="s" s="2">
+        <v>42</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
+      <c r="D5" t="s" s="2">
+        <v>43</v>
       </c>
       <c r="E5" s="4">
         <v>8197399604</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
+      <c r="F5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.15" customHeight="1">
+    <row r="6" ht="15.15" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+      <c r="B6" t="s" s="2">
+        <v>48</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
+      <c r="D6" t="s" s="2">
+        <v>49</v>
       </c>
       <c r="E6" s="4">
         <v>8197399604</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
+      <c r="F6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.15" customHeight="1">
+    <row r="7" ht="15.15" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+      <c r="B7" t="s" s="2">
+        <v>53</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
+      <c r="D7" t="s" s="2">
+        <v>54</v>
       </c>
       <c r="E7" s="4">
         <v>8197399604</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
+      <c r="F7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.7" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="14.7" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="14.7" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F2" r:id="rId1" location="" tooltip="" display="sam007@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" location="" tooltip="" display="john@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" location="" tooltip="" display="sam007@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId4" location="" tooltip="" display="john@gmail.com"/>
+    <hyperlink ref="F6" r:id="rId5" location="" tooltip="" display="sam007@gmail.com"/>
+    <hyperlink ref="F7" r:id="rId6" location="" tooltip="" display="john@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
+++ b/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Sno</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Starts From</t>
   </si>
   <si>
-    <t>JSWB100</t>
-  </si>
-  <si>
-    <t>SAM</t>
+    <t>JSWB101</t>
+  </si>
+  <si>
+    <t>JPHN</t>
   </si>
   <si>
     <r>
@@ -93,22 +93,13 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>8/9/2020</t>
-  </si>
-  <si>
-    <t>12/9/2020</t>
-  </si>
-  <si>
     <t>600</t>
   </si>
   <si>
-    <t>15/9/2020</t>
-  </si>
-  <si>
-    <t>JSWB101</t>
-  </si>
-  <si>
-    <t>JPHN</t>
+    <t>JSWB102</t>
+  </si>
+  <si>
+    <t>SILVER</t>
   </si>
   <si>
     <r>
@@ -137,7 +128,7 @@
     <t>601</t>
   </si>
   <si>
-    <t>JSWB102</t>
+    <t>JSWB103</t>
   </si>
   <si>
     <t>SATYA</t>
@@ -155,10 +146,7 @@
     <t>602</t>
   </si>
   <si>
-    <t>JSWB103</t>
-  </si>
-  <si>
-    <t>SILVER</t>
+    <t>JSWB104</t>
   </si>
   <si>
     <t>5003</t>
@@ -173,7 +161,7 @@
     <t>603</t>
   </si>
   <si>
-    <t>JSWB104</t>
+    <t>JSWB105</t>
   </si>
   <si>
     <t>ANU</t>
@@ -188,7 +176,7 @@
     <t>604</t>
   </si>
   <si>
-    <t>JSWB105</t>
+    <t>JSWB106</t>
   </si>
   <si>
     <t>DADY</t>
@@ -197,18 +185,46 @@
     <t>5005</t>
   </si>
   <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>JSWB107</t>
+  </si>
+  <si>
+    <t>JSWB108</t>
+  </si>
+  <si>
+    <t>JSWB109</t>
+  </si>
+  <si>
+    <t>JSWB110</t>
+  </si>
+  <si>
+    <t>JSWB111</t>
+  </si>
+  <si>
+    <t>JSWB112</t>
+  </si>
+  <si>
     <t>505</t>
   </si>
   <si>
-    <t>605</t>
+    <t>JSWB113</t>
+  </si>
+  <si>
+    <t>JSWB114</t>
+  </si>
+  <si>
+    <t>JSWB115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -247,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -285,137 +301,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -434,40 +326,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1555,7 +1414,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1564,13 +1423,13 @@
     <col min="1" max="1" width="7.35156" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6719" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6719" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.6719" style="1" customWidth="1"/>
-    <col min="6" max="16" width="25.6719" style="1" customWidth="1"/>
+    <col min="6" max="16" width="29.5" style="1" customWidth="1"/>
     <col min="17" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
+    <row r="1" ht="14.7" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1620,7 +1479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1">
+    <row r="2" ht="14.7" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1628,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>17</v>
@@ -1654,20 +1513,20 @@
       <c r="K2" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>25</v>
+      <c r="L2" s="6">
+        <v>44082</v>
+      </c>
+      <c r="M2" s="6">
+        <v>44084</v>
       </c>
       <c r="N2" t="s" s="5">
         <v>23</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="P2" s="6">
+        <v>44089</v>
       </c>
     </row>
     <row r="3" ht="14.7" customHeight="1">
@@ -1675,63 +1534,63 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
         <v>8197399604</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>33</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>22</v>
       </c>
       <c r="K3" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="L3" s="6">
+        <v>44083</v>
+      </c>
+      <c r="M3" s="6">
+        <v>44085</v>
       </c>
       <c r="N3" t="s" s="5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s" s="2">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="6">
+        <v>44090</v>
       </c>
     </row>
-    <row r="4" ht="15.15" customHeight="1">
+    <row r="4" ht="14.7" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4">
         <v>8197399604</v>
@@ -1740,10 +1599,10 @@
         <v>18</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>21</v>
@@ -1752,86 +1611,86 @@
         <v>22</v>
       </c>
       <c r="K4" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="L4" s="6">
+        <v>44084</v>
+      </c>
+      <c r="M4" s="6">
+        <v>44086</v>
       </c>
       <c r="N4" t="s" s="5">
         <v>23</v>
       </c>
       <c r="O4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P4" t="s" s="2">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="P4" s="6">
+        <v>44091</v>
       </c>
     </row>
-    <row r="5" ht="15.15" customHeight="1">
+    <row r="5" ht="14.7" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4">
         <v>8197399604</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>33</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>22</v>
       </c>
       <c r="K5" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="L5" s="6">
+        <v>44085</v>
+      </c>
+      <c r="M5" s="6">
+        <v>44087</v>
       </c>
       <c r="N5" t="s" s="5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P5" t="s" s="2">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="P5" s="6">
+        <v>44092</v>
       </c>
     </row>
-    <row r="6" ht="15.15" customHeight="1">
+    <row r="6" ht="14.7" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4">
         <v>8197399604</v>
@@ -1840,10 +1699,10 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>21</v>
@@ -1854,134 +1713,539 @@
       <c r="K6" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="L6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>25</v>
+      <c r="L6" s="6">
+        <v>44086</v>
+      </c>
+      <c r="M6" s="6">
+        <v>44088</v>
       </c>
       <c r="N6" t="s" s="5">
         <v>23</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s" s="2">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="P6" s="6">
+        <v>44093</v>
       </c>
     </row>
-    <row r="7" ht="15.15" customHeight="1">
+    <row r="7" ht="14.7" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4">
         <v>8197399604</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>33</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>22</v>
       </c>
       <c r="K7" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="L7" s="6">
+        <v>44087</v>
+      </c>
+      <c r="M7" s="6">
+        <v>44089</v>
       </c>
       <c r="N7" t="s" s="5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="P7" t="s" s="2">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="P7" s="6">
+        <v>44094</v>
       </c>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="L8" s="6">
+        <v>44088</v>
+      </c>
+      <c r="M8" s="6">
+        <v>44090</v>
+      </c>
+      <c r="N8" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P8" s="6">
+        <v>44095</v>
+      </c>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="L9" s="6">
+        <v>44089</v>
+      </c>
+      <c r="M9" s="6">
+        <v>44091</v>
+      </c>
+      <c r="N9" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="P9" s="6">
+        <v>44096</v>
+      </c>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="L10" s="6">
+        <v>44090</v>
+      </c>
+      <c r="M10" s="6">
+        <v>44092</v>
+      </c>
+      <c r="N10" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P10" s="6">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="11" ht="14.7" customHeight="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="L11" s="6">
+        <v>44091</v>
+      </c>
+      <c r="M11" s="6">
+        <v>44093</v>
+      </c>
+      <c r="N11" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P11" s="6">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="12" ht="14.7" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="L12" s="6">
+        <v>44092</v>
+      </c>
+      <c r="M12" s="6">
+        <v>44094</v>
+      </c>
+      <c r="N12" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="P12" s="6">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="13" ht="14.7" customHeight="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="L13" s="6">
+        <v>44093</v>
+      </c>
+      <c r="M13" s="6">
+        <v>44095</v>
+      </c>
+      <c r="N13" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="P13" s="6">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="L14" s="6">
+        <v>44094</v>
+      </c>
+      <c r="M14" s="6">
+        <v>44096</v>
+      </c>
+      <c r="N14" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="P14" s="6">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="L15" s="6">
+        <v>44095</v>
+      </c>
+      <c r="M15" s="6">
+        <v>44097</v>
+      </c>
+      <c r="N15" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="P15" s="6">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="16" ht="14.7" customHeight="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8197399604</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="L16" s="6">
+        <v>44096</v>
+      </c>
+      <c r="M16" s="6">
+        <v>44098</v>
+      </c>
+      <c r="N16" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="P16" s="6">
+        <v>44103</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" location="" tooltip="" display="sam007@gmail.com"/>
     <hyperlink ref="F3" r:id="rId2" location="" tooltip="" display="john@gmail.com"/>
     <hyperlink ref="F4" r:id="rId3" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F5" r:id="rId4" location="" tooltip="" display="john@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId4" location="" tooltip="" display="sam007@gmail.com"/>
     <hyperlink ref="F6" r:id="rId5" location="" tooltip="" display="sam007@gmail.com"/>
     <hyperlink ref="F7" r:id="rId6" location="" tooltip="" display="john@gmail.com"/>
+    <hyperlink ref="F8" r:id="rId7" location="" tooltip="" display="sam007@gmail.com"/>
+    <hyperlink ref="F9" r:id="rId8" location="" tooltip="" display="john@gmail.com"/>
+    <hyperlink ref="F10" r:id="rId9" location="" tooltip="" display="sam007@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId10" location="" tooltip="" display="john@gmail.com"/>
+    <hyperlink ref="F12" r:id="rId11" location="" tooltip="" display="sam007@gmail.com"/>
+    <hyperlink ref="F13" r:id="rId12" location="" tooltip="" display="john@gmail.com"/>
+    <hyperlink ref="F14" r:id="rId13" location="" tooltip="" display="sam007@gmail.com"/>
+    <hyperlink ref="F15" r:id="rId14" location="" tooltip="" display="john@gmail.com"/>
+    <hyperlink ref="F16" r:id="rId15" location="" tooltip="" display="john@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
+++ b/src/assets/Excel/Demo_Block_Detailstemplate_New.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Sno</t>
   </si>
@@ -94,128 +94,6 @@
   </si>
   <si>
     <t>600</t>
-  </si>
-  <si>
-    <t>JSWB102</t>
-  </si>
-  <si>
-    <t>SILVER</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>john@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>5001</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>JSWB103</t>
-  </si>
-  <si>
-    <t>SATYA</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>Half Yearly</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>JSWB104</t>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>Yearly</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>JSWB105</t>
-  </si>
-  <si>
-    <t>ANU</t>
-  </si>
-  <si>
-    <t>5004</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>JSWB106</t>
-  </si>
-  <si>
-    <t>DADY</t>
-  </si>
-  <si>
-    <t>5005</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>JSWB107</t>
-  </si>
-  <si>
-    <t>JSWB108</t>
-  </si>
-  <si>
-    <t>JSWB109</t>
-  </si>
-  <si>
-    <t>JSWB110</t>
-  </si>
-  <si>
-    <t>JSWB111</t>
-  </si>
-  <si>
-    <t>JSWB112</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>JSWB113</t>
-  </si>
-  <si>
-    <t>JSWB114</t>
-  </si>
-  <si>
-    <t>JSWB115</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1292,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1529,723 +1407,9 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="L3" s="6">
-        <v>44083</v>
-      </c>
-      <c r="M3" s="6">
-        <v>44085</v>
-      </c>
-      <c r="N3" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="P3" s="6">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="L4" s="6">
-        <v>44084</v>
-      </c>
-      <c r="M4" s="6">
-        <v>44086</v>
-      </c>
-      <c r="N4" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P4" s="6">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="L5" s="6">
-        <v>44085</v>
-      </c>
-      <c r="M5" s="6">
-        <v>44087</v>
-      </c>
-      <c r="N5" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P5" s="6">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="L6" s="6">
-        <v>44086</v>
-      </c>
-      <c r="M6" s="6">
-        <v>44088</v>
-      </c>
-      <c r="N6" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="P6" s="6">
-        <v>44093</v>
-      </c>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="L7" s="6">
-        <v>44087</v>
-      </c>
-      <c r="M7" s="6">
-        <v>44089</v>
-      </c>
-      <c r="N7" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="P7" s="6">
-        <v>44094</v>
-      </c>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="L8" s="6">
-        <v>44088</v>
-      </c>
-      <c r="M8" s="6">
-        <v>44090</v>
-      </c>
-      <c r="N8" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="P8" s="6">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="L9" s="6">
-        <v>44089</v>
-      </c>
-      <c r="M9" s="6">
-        <v>44091</v>
-      </c>
-      <c r="N9" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="P9" s="6">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="L10" s="6">
-        <v>44090</v>
-      </c>
-      <c r="M10" s="6">
-        <v>44092</v>
-      </c>
-      <c r="N10" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P10" s="6">
-        <v>44097</v>
-      </c>
-    </row>
-    <row r="11" ht="14.7" customHeight="1">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="L11" s="6">
-        <v>44091</v>
-      </c>
-      <c r="M11" s="6">
-        <v>44093</v>
-      </c>
-      <c r="N11" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P11" s="6">
-        <v>44098</v>
-      </c>
-    </row>
-    <row r="12" ht="14.7" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="L12" s="6">
-        <v>44092</v>
-      </c>
-      <c r="M12" s="6">
-        <v>44094</v>
-      </c>
-      <c r="N12" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="P12" s="6">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="13" ht="14.7" customHeight="1">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="L13" s="6">
-        <v>44093</v>
-      </c>
-      <c r="M13" s="6">
-        <v>44095</v>
-      </c>
-      <c r="N13" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="P13" s="6">
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="14" ht="14.7" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="L14" s="6">
-        <v>44094</v>
-      </c>
-      <c r="M14" s="6">
-        <v>44096</v>
-      </c>
-      <c r="N14" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="P14" s="6">
-        <v>44101</v>
-      </c>
-    </row>
-    <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="L15" s="6">
-        <v>44095</v>
-      </c>
-      <c r="M15" s="6">
-        <v>44097</v>
-      </c>
-      <c r="N15" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="P15" s="6">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="16" ht="14.7" customHeight="1">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8197399604</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K16" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="L16" s="6">
-        <v>44096</v>
-      </c>
-      <c r="M16" s="6">
-        <v>44098</v>
-      </c>
-      <c r="N16" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="P16" s="6">
-        <v>44103</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId2" location="" tooltip="" display="john@gmail.com"/>
-    <hyperlink ref="F4" r:id="rId3" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F5" r:id="rId4" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F6" r:id="rId5" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F7" r:id="rId6" location="" tooltip="" display="john@gmail.com"/>
-    <hyperlink ref="F8" r:id="rId7" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F9" r:id="rId8" location="" tooltip="" display="john@gmail.com"/>
-    <hyperlink ref="F10" r:id="rId9" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F11" r:id="rId10" location="" tooltip="" display="john@gmail.com"/>
-    <hyperlink ref="F12" r:id="rId11" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F13" r:id="rId12" location="" tooltip="" display="john@gmail.com"/>
-    <hyperlink ref="F14" r:id="rId13" location="" tooltip="" display="sam007@gmail.com"/>
-    <hyperlink ref="F15" r:id="rId14" location="" tooltip="" display="john@gmail.com"/>
-    <hyperlink ref="F16" r:id="rId15" location="" tooltip="" display="john@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
